--- a/biology/Biologie cellulaire et moléculaire/Région_non_traduite/Région_non_traduite.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Région_non_traduite/Région_non_traduite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_non_traduite</t>
+          <t>Région_non_traduite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  régions non traduites, ou régions UTR (untranslated regions en anglais), sont les parties de l'ARNm issues de la transcription de l'ADN qui ne sont pas traduites en protéines.
 On distingue les régions 5'-UTR (contenant par exemple la coiffe chez les eucaryotes) et 3'-UTR, respectivement du côté 5' et 3' de l'ARNm.
